--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\Desktop\TBR_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E1892-7C84-43AA-926E-1B580B203E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C3D4D2-6EFD-4659-88A3-6E022BD6D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR360" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +39,6 @@
     <t>Marka prasowa</t>
   </si>
   <si>
-    <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29545226</t>
-  </si>
-  <si>
-    <t>Fale: 1-9/2023</t>
-  </si>
-  <si>
     <t>Dane CCS: Druk, E-wydania, Współczytelnictwo – Badanie PBC „Zanagażowanie w reklamę” , www, www PC, www mobile – PBI/Gemius</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Definicje: www.pbc.pl/wskazniki/</t>
+  </si>
+  <si>
+    <t>Fale: 4/2023-3/2024</t>
+  </si>
+  <si>
+    <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -192,6 +191,7 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,679 +585,679 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
@@ -1269,19 +1269,19 @@
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
+      <c r="A82" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="84" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="85" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="86" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A86" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C3D4D2-6EFD-4659-88A3-6E022BD6D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94170F3C-BA02-481B-82EA-AB1D01719633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Definicje: www.pbc.pl/wskazniki/</t>
   </si>
   <si>
-    <t>Fale: 4/2023-3/2024</t>
+    <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
+    <t>Fale: 7/2023-6/2024</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94170F3C-BA02-481B-82EA-AB1D01719633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFE560-63DB-42D9-9E71-F133E51B4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Fale: 7/2023-6/2024</t>
+    <t>Fale: 10/2023-9/2024</t>
   </si>
 </sst>
 </file>
@@ -509,17 +509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="7" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,7 +541,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -561,7 +561,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -593,7 +593,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -602,7 +602,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -611,7 +611,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -620,7 +620,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -629,7 +629,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -638,7 +638,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -647,7 +647,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -656,7 +656,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -665,7 +665,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -674,7 +674,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -683,7 +683,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -692,7 +692,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -701,7 +701,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -710,7 +710,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -719,7 +719,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -728,7 +728,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -737,7 +737,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -746,7 +746,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -755,7 +755,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -764,7 +764,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -773,7 +773,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -782,7 +782,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -791,7 +791,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -800,7 +800,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -809,7 +809,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -818,7 +818,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -827,7 +827,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -836,7 +836,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -845,7 +845,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -854,7 +854,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -863,7 +863,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -872,7 +872,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -881,7 +881,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -890,7 +890,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -899,7 +899,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -908,7 +908,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -917,7 +917,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -926,7 +926,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -935,7 +935,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -944,7 +944,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -953,7 +953,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -962,7 +962,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -971,7 +971,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -980,7 +980,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -989,7 +989,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -998,7 +998,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1007,7 +1007,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1016,7 +1016,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1025,7 +1025,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -1034,7 +1034,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1043,7 +1043,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1052,7 +1052,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1061,7 +1061,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1070,7 +1070,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1079,7 +1079,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1088,7 +1088,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1097,7 +1097,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1106,7 +1106,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1115,7 +1115,7 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -1124,7 +1124,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1133,7 +1133,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -1142,7 +1142,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1151,7 +1151,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -1160,7 +1160,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1169,7 +1169,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -1178,7 +1178,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1187,7 +1187,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -1196,7 +1196,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1205,7 +1205,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -1214,7 +1214,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1223,7 +1223,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -1232,7 +1232,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1241,7 +1241,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -1250,7 +1250,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1259,7 +1259,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1268,7 +1268,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>6</v>
       </c>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFE560-63DB-42D9-9E71-F133E51B4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6F1D7-A3F4-4733-8685-E80366208E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Fale: 10/2023-9/2024</t>
+    <t>Fale: 1/2024-12/2024</t>
   </si>
 </sst>
 </file>
@@ -509,9 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6F1D7-A3F4-4733-8685-E80366208E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4EC031-44DE-439F-BC6F-7F9758C821A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Fale: 1/2024-12/2024</t>
+    <t>Fale: 4/2024-3/2025</t>
   </si>
 </sst>
 </file>
@@ -509,15 +509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="7" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +530,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,7 +541,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +552,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -559,7 +561,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -582,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -591,7 +593,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -600,7 +602,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -609,7 +611,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -618,7 +620,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -627,7 +629,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -636,7 +638,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -645,7 +647,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -654,7 +656,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -663,7 +665,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -672,7 +674,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -681,7 +683,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -690,7 +692,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -699,7 +701,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -708,7 +710,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -717,7 +719,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -726,7 +728,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -735,7 +737,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -744,7 +746,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -753,7 +755,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -762,7 +764,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -771,7 +773,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -780,7 +782,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -789,7 +791,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -798,7 +800,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -807,7 +809,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -816,7 +818,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -825,7 +827,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -834,7 +836,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -843,7 +845,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -852,7 +854,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -861,7 +863,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -870,7 +872,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -879,7 +881,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -888,7 +890,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -897,7 +899,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -906,7 +908,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -915,7 +917,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -924,7 +926,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -933,7 +935,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -942,7 +944,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -951,7 +953,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -960,7 +962,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -969,7 +971,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -978,7 +980,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -987,7 +989,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -996,7 +998,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1005,7 +1007,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1014,7 +1016,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1023,7 +1025,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -1032,7 +1034,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1041,7 +1043,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1050,7 +1052,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1059,7 +1061,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1068,7 +1070,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1077,7 +1079,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -1086,7 +1088,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1095,7 +1097,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -1104,7 +1106,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1113,7 +1115,7 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -1122,7 +1124,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1131,7 +1133,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -1140,7 +1142,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1149,7 +1151,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -1158,7 +1160,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1167,7 +1169,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -1176,7 +1178,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1185,7 +1187,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -1194,7 +1196,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1203,7 +1205,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -1212,7 +1214,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1221,7 +1223,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -1230,7 +1232,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1239,7 +1241,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -1248,7 +1250,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1257,7 +1259,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1266,7 +1268,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="14" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1279,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1290,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1301,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1312,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A86" s="9" t="s">
         <v>6</v>
       </c>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4EC031-44DE-439F-BC6F-7F9758C821A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07806372-D954-439B-B14A-D67BCEF85BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Fale: 4/2024-3/2025</t>
+    <t>Fale: 7/2024-6/2025</t>
   </si>
 </sst>
 </file>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07806372-D954-439B-B14A-D67BCEF85BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C31BE4D-C9E4-4A18-8560-DC4E95ED1398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Fale: 7/2024-6/2025</t>
+    <t>Fale: 10/2024-9/2025</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/szablon.xlsx
+++ b/szablon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C31BE4D-C9E4-4A18-8560-DC4E95ED1398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBB106-720D-4F7B-BA0D-FF701458A190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Statystyki: Zasięg CCS i Estymacja na populację, Populacja w wybranej grupie celowej = 29400927</t>
   </si>
   <si>
-    <t>Fale: 10/2024-9/2025</t>
+    <t>Fale: 1/2025-12/2025</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
